--- a/ValueSet-AgreementResponseVS.xlsx
+++ b/ValueSet-AgreementResponseVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ichom-breast-cancer/ValueSet/AgreementResponseVS</t>
+    <t>http://ig-ichombreastcancer.gabriellesantosleandro.com/ValueSet/AgreementResponseVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-15T00:28:22+00:00</t>
+    <t>2023-11-12T21:01:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -132,7 +132,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ichom-breast-cancer/CodeSystem/AgreementResponseCodeSystem</t>
+    <t>http://ig-ichombreastcancer.gabriellesantosleandro.com/CodeSystem/AgreementResponseCodeSystem</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-AgreementResponseVS.xlsx
+++ b/ValueSet-AgreementResponseVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-12T21:01:00+00:00</t>
+    <t>2023-11-13T00:07:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-AgreementResponseVS.xlsx
+++ b/ValueSet-AgreementResponseVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T00:07:26-03:00</t>
+    <t>2023-11-13T00:45:53-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-AgreementResponseVS.xlsx
+++ b/ValueSet-AgreementResponseVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T00:45:53-03:00</t>
+    <t>2023-11-13T01:02:30-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
